--- a/3/3/1/En UF 2002 a 2021 - Trimestral.xlsx
+++ b/3/3/1/En UF 2002 a 2021 - Trimestral.xlsx
@@ -2237,6 +2237,9 @@
       <c r="A77" t="s">
         <v>82</v>
       </c>
+      <c r="B77">
+        <v>-2.63</v>
+      </c>
       <c r="C77">
         <v>-1.61</v>
       </c>

--- a/3/3/1/En UF 2002 a 2021 - Trimestral.xlsx
+++ b/3/3/1/En UF 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Serie</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2256,6 +2259,26 @@
         <v>1.77</v>
       </c>
     </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78">
+        <v>-0.8</v>
+      </c>
+      <c r="D78">
+        <v>0.89</v>
+      </c>
+      <c r="E78">
+        <v>1.7</v>
+      </c>
+      <c r="F78">
+        <v>2.32</v>
+      </c>
+      <c r="G78">
+        <v>2.46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
